--- a/processus.xlsx
+++ b/processus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A418ECB-9879-4327-9CC8-15E77C2F7BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127FD97C-0A0C-4B6F-AFA9-DACCFBFC758F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28890" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{0DF3A291-D873-454A-8976-99CEE38CCC34}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0DF3A291-D873-454A-8976-99CEE38CCC34}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
-  <si>
-    <t>n  8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t xml:space="preserve">p1  </t>
   </si>
@@ -48,9 +45,6 @@
     <t>False</t>
   </si>
   <si>
-    <t>ret= p1 + p2</t>
-  </si>
-  <si>
     <t>i in[1,2]</t>
   </si>
   <si>
@@ -60,22 +54,22 @@
     <t>p1</t>
   </si>
   <si>
-    <t xml:space="preserve">i  </t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
-    <t>i&gt;n  (1&gt;8?)</t>
-  </si>
-  <si>
-    <t>return 1</t>
-  </si>
-  <si>
     <t>THE END</t>
   </si>
   <si>
-    <t>return ret</t>
+    <t xml:space="preserve">n </t>
+  </si>
+  <si>
+    <t>yield 1</t>
+  </si>
+  <si>
+    <t>yield n</t>
+  </si>
+  <si>
+    <t>n= p1 + p2</t>
   </si>
 </sst>
 </file>
@@ -131,10 +125,18 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,263 +451,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F924EC-D095-47EB-8AAF-043F912C0F33}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="L4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
+      <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
+      <c r="G7" s="2">
         <v>8</v>
       </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H7" s="2">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2">
+        <v>21</v>
+      </c>
+      <c r="J7" s="2">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8</v>
+      </c>
+      <c r="I8" s="2">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <v>13</v>
+      </c>
+      <c r="I9" s="2">
+        <v>21</v>
+      </c>
+      <c r="J9" s="2">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
+      <c r="G10" s="3">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="3">
         <v>13</v>
       </c>
-      <c r="I9">
+      <c r="I10" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>13</v>
-      </c>
-      <c r="I11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4">
-        <v>8</v>
-      </c>
-      <c r="H12" s="4">
-        <v>13</v>
-      </c>
-      <c r="I12" s="4">
-        <v>21</v>
+      <c r="J10" s="2">
+        <v>34</v>
+      </c>
+      <c r="K10" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/processus.xlsx
+++ b/processus.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127FD97C-0A0C-4B6F-AFA9-DACCFBFC758F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFA958B-2829-421D-BF69-0369387DF587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0DF3A291-D873-454A-8976-99CEE38CCC34}"/>
+    <workbookView xWindow="120" yWindow="440" windowWidth="19180" windowHeight="10060" xr2:uid="{0DF3A291-D873-454A-8976-99CEE38CCC34}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fibonacci" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -454,7 +454,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L10"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,10 +690,10 @@
       <c r="I10" s="3">
         <v>21</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <v>34</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="3">
         <v>55</v>
       </c>
     </row>
